--- a/notebooks/results.xlsx
+++ b/notebooks/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,20 +472,118 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4134.252371546751</v>
+        <v>4449.200320822603</v>
       </c>
       <c r="C2" t="n">
-        <v>548.9591212462639</v>
+        <v>388.4662306475441</v>
       </c>
       <c r="D2" t="n">
-        <v>3734.581394128892</v>
+        <v>4060.734090175059</v>
       </c>
       <c r="E2" t="n">
-        <v>3757.692590014332</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4910.483130497027</v>
-      </c>
+        <v>4837.666551470147</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Task 1.2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4449.200320822603</v>
+      </c>
+      <c r="C3" t="n">
+        <v>388.4662306475441</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4060.734090175059</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4837.666551470147</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Task 1.3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5079.337457256514</v>
+      </c>
+      <c r="C4" t="n">
+        <v>571.3560627366455</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5650.693519993159</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4507.981394519868</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Task 2.1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18290.62894347315</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6147.148928657862</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12143.48001481529</v>
+      </c>
+      <c r="E5" t="n">
+        <v>24437.77787213101</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Task 2.2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18290.62894347315</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6147.148928657862</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12143.48001481529</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24437.77787213101</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Task 3.1.1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4192.381535149367</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3017.902992305311</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7210.284527454678</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1174.478542844056</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notebooks/results.xlsx
+++ b/notebooks/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +585,46 @@
       </c>
       <c r="F7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Task 5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01276294761933378</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0001338227235197264</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01262912489581405</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0128967703428535</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Task 4</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01276294761933378</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0001338227235197264</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01262912489581405</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0128967703428535</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/results.xlsx
+++ b/notebooks/results.xlsx
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4449.200320822603</v>
+        <v>0.01288891377660798</v>
       </c>
       <c r="C2" t="n">
-        <v>388.4662306475441</v>
+        <v>0.0003927172800472258</v>
       </c>
       <c r="D2" t="n">
-        <v>4060.734090175059</v>
+        <v>0.0132816310566552</v>
       </c>
       <c r="E2" t="n">
-        <v>4837.666551470147</v>
+        <v>0.01249619649656075</v>
       </c>
       <c r="F2" t="inlineStr"/>
     </row>

--- a/notebooks/results.xlsx
+++ b/notebooks/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,44 +586,380 @@
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Task 3.2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01197127015775606</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0004090969806984862</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01156217317705758</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01238036713845455</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Task 3.3</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01361261500819759</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001801534710619895</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01379276847925958</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0134324615371356</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Task 3.4</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0229319940230936</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001480224471868075</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02145176955122553</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.02441221849496168</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Task 3.5</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0146569462943664</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0003949708592278778</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01505191715359428</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01426197543513852</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Task 3.6</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01244404695547804</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0009017604715674289</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01154228648391061</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01334580742704547</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Task 3.7</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01124752617278136</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0001272767712741478</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01112024940150722</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01137480294405551</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Task 3.8</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01141697205835546</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0004861754677094382</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01093079659064602</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0119031475260649</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Task 3.9</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01231734973328352</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0003468328525417482</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01266418258582527</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01197051688074178</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Task 3.10</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01416254659251625</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.875887037750567e-05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01423130546289376</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01409378772213875</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Task 3.11</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01209774670475644</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0001883287912915442</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0119094179134649</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01228607549604799</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Task 3.12</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01368441209492837</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.001595334174601649</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01208907792032672</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01527974626953002</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Task 3.13</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01356128683535835</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.00086258267360949</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01269870416174886</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01442386950896784</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Task 3.14</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01503767781449798</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.002685798445878154</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01772347626037613</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01235187936861982</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Task 3.15</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01554262446292109</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.001108465776060105</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01443415868686098</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01665109023898119</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Task 3.16</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01536954279875585</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.002369082090081036</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01300046070867482</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01773862488883689</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Task 3.1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01536954279875585</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.002369082090081036</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.01300046070867482</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01773862488883689</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Task 4</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.04763512342652935</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0005822897709906565</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0470528336555387</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.04821741319752001</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Task 5</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.01276294761933378</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0001338227235197264</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.01262912489581405</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0128967703428535</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Task 4</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.01276294761933378</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0001338227235197264</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.01262912489581405</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0128967703428535</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>0.0131067798857184</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0003401851764028479</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01344696506212125</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.01276659470931556</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notebooks/results.xlsx
+++ b/notebooks/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,141 @@
           <t>Seed_2</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_6</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_7</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_8</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_9</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_10</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_11</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_12</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_13</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_14</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_15</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_16</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_17</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_18</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_19</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_20</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_21</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_22</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_23</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_24</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_25</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_26</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_27</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_28</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Seed_29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,18 +607,101 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01288891377660798</v>
+        <v>0.01230375648492922</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003927172800472258</v>
+        <v>0.0009770680919616345</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0132816310566552</v>
+        <v>0.01188918992758971</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01249619649656075</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>0.01160117627930715</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01188130925924271</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01136850104233102</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01277238603230953</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01203633603470792</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01233120617901053</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.01169934629537907</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.01243218097253503</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01320735891693799</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.01236197286883527</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.01301114219959802</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.01196308495588526</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.01589865518780909</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01277910818650125</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.01204033646676662</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.01172901259137337</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.01164692294404314</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.01163653365243031</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.01222507333239182</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.01143931508683669</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.01224486764269711</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.01207522286973224</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.01139491384626477</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.01142619078201434</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0127286975776987</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0114308347280423</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.01493791664781915</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.01261834176748057</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.01230556027430588</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -492,18 +710,101 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4449.200320822603</v>
+        <v>0.0125143026378602</v>
       </c>
       <c r="C3" t="n">
-        <v>388.4662306475441</v>
+        <v>0.0009286409301208429</v>
       </c>
       <c r="D3" t="n">
-        <v>4060.734090175059</v>
+        <v>0.01230884206293772</v>
       </c>
       <c r="E3" t="n">
-        <v>4837.666551470147</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>0.01227359580888313</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01282841210114385</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01382131942155345</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01161947371610968</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0124394835621824</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01558152886119444</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01339671049790303</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01427382450786826</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01131035246112799</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01181195410607417</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.01209924933722949</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01163522899910327</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.01190572483969816</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01181471784505838</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.01157678627573285</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.01243719547695629</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.01180702390714831</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.01243010041820711</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.01217145474197026</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.01318069995227938</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.01297040470116222</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.01204510058188517</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.01417274949606938</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.01225794802820808</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0119215000735556</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.01281879058130859</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.01246698795338804</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.01208174862882848</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.01197017019103905</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -512,18 +813,101 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5079.337457256514</v>
+        <v>0.01282241493803336</v>
       </c>
       <c r="C4" t="n">
-        <v>571.3560627366455</v>
+        <v>0.001030553274411273</v>
       </c>
       <c r="D4" t="n">
-        <v>5650.693519993159</v>
+        <v>0.01310564099841199</v>
       </c>
       <c r="E4" t="n">
-        <v>4507.981394519868</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>0.01315397124851132</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01214103575071347</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0122183174704885</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01315390513886671</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01248291902076572</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01358000319056932</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.01276802725202968</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01438199697980598</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01209304861382384</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01313564029661792</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01538406892917463</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01228828552078645</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.01218539129628408</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.01234794039432264</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.01342531611022831</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.011863308620146</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.01201367686056529</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.01222559946788551</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.01222023907087584</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.01207594123538753</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.01282743747450211</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0117436627917644</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.01242882107151683</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.01650193026497361</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.01267102969070503</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.01261922115045951</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.01225462482080183</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0134002708116908</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.01198117659832594</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -532,18 +916,101 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18290.62894347315</v>
+        <v>0.08431783954930744</v>
       </c>
       <c r="C5" t="n">
-        <v>6147.148928657862</v>
+        <v>0.01106053099007447</v>
       </c>
       <c r="D5" t="n">
-        <v>12143.48001481529</v>
+        <v>0.08417382608662165</v>
       </c>
       <c r="E5" t="n">
-        <v>24437.77787213101</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>0.07435658049947146</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08354543983393478</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.09364954942610355</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1044144230282171</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.08199974381649106</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.06299096764441926</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0812330484439924</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.09138828232151276</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.08266741664561127</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1187278930644325</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.08964097875850044</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.07447109656994762</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.07971537158318193</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.07633897949563578</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.09615977214369563</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.07808267231437423</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.07857233599850347</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.07887765892999765</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.09420933562342047</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.09135159304554834</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.06931722272783719</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0799490214655089</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0801560068186782</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.08241808098004511</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.08830633352639981</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.09652774550960844</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.07556986563133568</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.09121903983736693</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.06950490470883035</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -552,414 +1019,204 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18290.62894347315</v>
+        <v>0.08416166563331823</v>
       </c>
       <c r="C6" t="n">
-        <v>6147.148928657862</v>
+        <v>0.01455372048366031</v>
       </c>
       <c r="D6" t="n">
-        <v>12143.48001481529</v>
+        <v>0.07402657447712913</v>
       </c>
       <c r="E6" t="n">
-        <v>24437.77787213101</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>0.07919517366911677</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07452550926007606</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.087974717264898</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1128490183962183</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.08232778367785416</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.06108034222404875</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.08136892849807383</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.102635254601126</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.06688918284242608</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1150631064422838</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.09586187947064116</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.06420137579855427</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.08407328604164743</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.07126663072928303</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.09727671788896416</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.09751585778943783</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.07273067330118455</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.08330241002870241</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.07742087514371437</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.08042286743600804</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.08276818371493709</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.08196497718394398</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.09422179412385415</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.07472929629015138</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.08005813744135941</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1091399618922218</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0713862376733599</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1056695130170071</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.06290370268132385</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Task 3.1.1</t>
+          <t>Task 2.3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4192.381535149367</v>
+        <v>0.09367874078316375</v>
       </c>
       <c r="C7" t="n">
-        <v>3017.902992305311</v>
+        <v>0.06369766856562105</v>
       </c>
       <c r="D7" t="n">
-        <v>7210.284527454678</v>
+        <v>0.06213846801354292</v>
       </c>
       <c r="E7" t="n">
-        <v>1174.478542844056</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Task 3.2</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.01197127015775606</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0004090969806984862</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.01156217317705758</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.01238036713845455</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Task 3.3</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.01361261500819759</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001801534710619895</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.01379276847925958</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0134324615371356</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Task 3.4</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.0229319940230936</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001480224471868075</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.02145176955122553</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.02441221849496168</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Task 3.5</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.0146569462943664</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0003949708592278778</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.01505191715359428</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.01426197543513852</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Task 3.6</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.01244404695547804</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0009017604715674289</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.01154228648391061</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.01334580742704547</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Task 3.7</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.01124752617278136</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0001272767712741478</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.01112024940150722</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.01137480294405551</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Task 3.8</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.01141697205835546</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0004861754677094382</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.01093079659064602</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0119031475260649</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Task 3.9</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.01231734973328352</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0003468328525417482</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.01266418258582527</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.01197051688074178</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Task 3.10</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.01416254659251625</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.875887037750567e-05</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.01423130546289376</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.01409378772213875</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Task 3.11</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.01209774670475644</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0001883287912915442</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0119094179134649</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.01228607549604799</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Task 3.12</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.01368441209492837</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.001595334174601649</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.01208907792032672</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.01527974626953002</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Task 3.13</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.01356128683535835</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.00086258267360949</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.01269870416174886</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.01442386950896784</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Task 3.14</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.01503767781449798</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.002685798445878154</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.01772347626037613</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.01235187936861982</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Task 3.15</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.01554262446292109</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.001108465776060105</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.01443415868686098</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.01665109023898119</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Task 3.16</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.01536954279875585</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.002369082090081036</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.01300046070867482</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.01773862488883689</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Task 3.1</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.01536954279875585</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.002369082090081036</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.01300046070867482</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.01773862488883689</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Task 4</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.04763512342652935</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0005822897709906565</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.0470528336555387</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.04821741319752001</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Task 5</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.0131067798857184</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0003401851764028479</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.01344696506212125</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.01276659470931556</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
+        <v>0.08734831264268018</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.07971808756044985</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1062413120336852</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4027369838863891</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.08290334170648411</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.07060533581899853</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.07241239553877273</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1203083665734629</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0577916703930412</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1728058970760938</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1031277717412388</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.05000174645514413</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0767187916829412</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.06291654048361624</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.09528053744647427</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.1068450997364893</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.06401400559372331</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.07787640561528514</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.08703884723810673</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.06362324476075272</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.05976900928971096</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.08879469598882468</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.07834078152035877</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0726764484006903</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0758613878719854</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.1099942561685967</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.02747741806030869</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.1370504125217877</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.05794465167527679</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notebooks/results.xlsx
+++ b/notebooks/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,6 +1218,1654 @@
         <v>0.05794465167527679</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Task 3.1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01097220575152317</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0008149168201783455</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01092416082671298</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.01054834677663195</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01174268299098433</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0101481650936482</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.009918941316828828</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01127560746778507</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01012365884401585</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.01084927452188439</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0107645772335006</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01066024815420603</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0105157737105759</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.01052922286848371</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.01043839009514391</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.01032789208813953</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.01047213987524958</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.01090247146379631</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.01319490032094225</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.01030835200826242</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.01081742371071157</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.01002544063125205</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.01194226342403437</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.01101897128860388</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.01112831099921004</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.01007455839411901</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.01099634669326527</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.01208478313610256</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.01300297662364268</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.01109030862139099</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.01111929908214811</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.01222068428442276</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Task 3.2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01090412816113987</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0004737055682347989</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01091506960013277</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01057747474550666</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01110858386455533</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01026389187151999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01065106406275002</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01103775692177024</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01102714952227816</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01054264104007506</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.01115587328106665</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.01020090250537217</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.01090676628784538</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.01123918432523527</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.01171209561928364</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.01027352440213861</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.01086226165631181</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.01057567609946839</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.01078858424080748</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.01138427085045504</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.01040000356036602</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.01080711223676931</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.01046605141381888</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.01107438069597732</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.01124618700873472</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.01044148197303211</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.01051401718877168</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.01048939446008647</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.01146233334701576</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.01109207502152373</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.01225432509501548</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.01165371193651189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Task 3.3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01248680854723218</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0007945259436398503</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01265952247618809</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01188989387773786</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01523594509376368</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01256858802467633</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.01331627692069684</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01274674428580886</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01215098708524352</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.01249709839860017</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.01251546784048162</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01225088136989731</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.01304382325117053</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.01214416031792892</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.01330669901105295</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.01225291291625461</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.01129769070691356</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.01245956788260107</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.01347843472948261</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.01219469033707452</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.01162710608542294</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.01221566735649317</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.01273881872096642</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.0123851770865906</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.01196254912453199</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.01245138592527538</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.013828828399689</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.01192673810046289</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.01153932800125975</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.01219945078819381</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.01269089886055264</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.01102892344195375</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Task 3.4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01484330183772027</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0008686571900205319</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01685632316337908</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01438352456134567</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01417264670296496</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0169519586137885</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01532069941902216</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0141057689876066</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01468975422600834</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01456546275279562</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.01465740423460902</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.01397926377301646</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.01636967661740048</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.01538468968352652</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.01443860449008438</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.01421729385524288</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.01417779623134669</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.01500568461967754</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.01441110551638747</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.01469638653137644</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.01388255550514917</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.01410901938950638</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.01385506519379327</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.01434266187558399</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.01485633186423516</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.01465179517806935</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.01474083918144609</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.01702252917979392</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.01476687405100946</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.01513343834425974</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.01521424720331457</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.01433965418586842</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Task 3.5</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01262806359056558</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0007026270012153038</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01220863671141525</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01239175305993261</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.01299401382723213</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01282771707641304</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.01218955822630577</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01304217471582856</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01413221606090462</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.01240941044343915</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.01248858965244989</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01170154744888171</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.01233462510299587</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.01298815282924202</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.01173494076117158</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0121332657970808</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.01214867564971594</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.01221581784747909</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.01237582265653565</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.01248049465646529</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.01220773034250626</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.01199609248268396</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.01297301721610003</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.01264603589933758</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.01389140310689247</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.01480268077767647</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.01211953118632274</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.01238356261688167</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.01303837282164264</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.01195923005139547</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.01235836851592041</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.01366847017611865</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Task 3.6</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01056985188566769</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0004626204805799897</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01047327827517909</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01042313106050714</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01103241048643849</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01034327370313434</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.01095256420284217</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01020387557281687</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0101874311006776</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.01037459800380672</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.01052340197786231</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.01047428660631091</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.01135881203059553</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.01073003585583374</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.01056673850652277</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.01071215194556273</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.01007487929258094</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.01060036069100302</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.01048097586879646</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.01057671667283057</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.01158324923578278</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.009829806822516161</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.01146956149527308</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.01006044283345491</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.0100014075319207</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.0100953458713575</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.01101611593138849</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.01126991406830864</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.01017929127466188</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.01112033467803787</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.0104160404735688</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.009965124500458521</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Task 3.7</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01067589190541751</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0005445336860835382</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01065112481409175</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01052479680605696</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01028557137549189</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01081145286466116</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.01035167366192338</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.01045659724285149</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01017524925619059</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.01097313868236518</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.01099400173398064</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.01040014603350161</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01090012655915752</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.01085748615156229</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.01071588303241979</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.01064722890871436</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.01015773072547587</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.01078703704730304</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.01071845841713814</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.01081577614627002</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.01024622352761818</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.01151033997415323</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.01096368080190416</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.01062412246932511</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.01068116214142854</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.01023554552093482</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.01063051443467735</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.01089893115941612</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.01020078487652395</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.01026291453254433</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.009820247371601927</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.01297881089324197</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Task 3.8</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01120861679201109</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0009147508824100271</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.01029478266479278</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01126359901806208</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.01383199213791508</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01013042246831347</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0126803755132388</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.01158118554767856</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01009774537396391</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0102247386379892</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.01192687934561209</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0102077528109859</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.01108552828005229</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.01131212465900219</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.01028590580484568</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.01098651095029383</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.01189195272223236</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.01285501865881079</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.01091169772012713</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0104423131983835</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.0104790917368346</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.0109530448155337</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.01232989149945832</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.01105783838379524</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.01152161508900897</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.01048447787814697</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.01059011871372877</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.01132907206458942</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.01030364467167064</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.01099076112421099</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.01226027484382037</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.01194814742723509</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Task 3.9</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01145653048695591</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0009332709425199149</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0117061384781122</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01108270268509821</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01111258879261347</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01121582770510921</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.01412171422103204</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01065912588655374</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01051200293042606</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01328040890659689</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.01205340551055824</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01159921059298986</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01119394510378097</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.01112020835679446</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0109715505793035</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.01075152207658374</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0104654283042883</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.01120288771088351</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.01101917694945416</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.01073122000183234</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.01113370584820987</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.0116413554998324</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.01113326726124263</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.01411808342050866</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.0108701660951039</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.01097454463947991</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.0106322957741088</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.01148756303422139</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.01074667972023937</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.01245697391173826</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.01143905105576343</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.01226316355621792</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Task 3.10</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01242518461058482</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.001150757617131456</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01198131508622004</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01193176369463904</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01149951819211361</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01104498994915883</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.01447867197073599</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.01344796747668697</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.01161165136702798</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.01498831479078397</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.01254284554331824</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.01205357650173622</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01205834317832285</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.01156324961191127</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.01243199812851833</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.011736118779158</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.01176648931368266</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.01182740619928251</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.01162945964242777</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.01141270769965587</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.01230409572532278</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.01229722807801592</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.01142259660846235</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.01413732251027355</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.01624230433314353</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.01328665224400023</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.01179181809141472</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.01243269931974895</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.0118858307126513</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.01247807485285842</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.01235697429890343</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.01211355441736933</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Task 3.11</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01141375097845634</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001067320423394124</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01094775165726417</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01056994192627171</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01116279920321439</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01014089731663831</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01080972979976917</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01061916000875044</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01084163509275</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.01151813791064266</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.01398333188931269</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.01099158243196221</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.01103964231987706</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0129773294256138</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.01486086567121536</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.01172502700964432</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.01098187807169975</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.01055133833372898</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.01189768438191983</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.01101714038078168</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.01072283005439041</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.01235441385180387</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.01034945377789306</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.01084290242010667</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.01127064626441532</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.01091162341958815</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.01068791200797296</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.01206860751314864</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.01099984497504327</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.0105174460636334</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.01270685638911037</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.01234411978552741</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Task 3.12</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01159312003861454</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.000789752700594155</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01153504324471274</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0123127805670202</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01159346398834206</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01141332456089494</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.01164434213857776</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.01340974705452836</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.01085657196421821</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.01090702268486441</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.01137829143449775</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.01110128393815779</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.01155818436388301</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.01144642900300174</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.01127000949892716</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.01081820285908254</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.01125339528286625</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.01122937716932985</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.01067159147678829</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.01236178937014549</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.01277932464749907</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.01118435841575843</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.01149301352637571</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.01292106399396401</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.01092824621079477</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.01066819604621408</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.01245624557531128</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.01094368852014812</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.01139666454733095</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.01178285069712178</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.01075362293236009</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.01372547544571933</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Task 3.13</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01244480146789538</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0009303285754602654</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01390586888348899</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01335366127904675</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01192852813441472</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01179668514138256</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01251014731757446</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.01192894061059702</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01201078746338176</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.01336727515525851</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.01304717786126524</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.01242457926441806</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.01423312144886671</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.01176023239397021</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.0115928284819615</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.01356249777962645</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0122458149470241</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.01187014198144573</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.01281703236098073</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.01135752744808383</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.01144199428118595</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.01268832961028681</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.01111177986076073</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.01149093614720615</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.01131671793841044</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.01147165862505202</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.0143794712947348</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.013904619049745</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.01182464256465344</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.01279095400918193</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.01192993652222172</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.01328015618063502</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Task 3.14</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01117886491174331</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.001023084235076253</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01303775701987781</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01046757754006153</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01119029451521027</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01172402233921686</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01440331624225342</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.01093617792234288</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01000182255411514</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01101584216362695</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0116865414087405</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.01142117584696718</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.01167092199145977</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.01091396838363745</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.01134512373648845</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.01012313978862792</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.009890601141011555</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.01100048036026497</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.01050178943782898</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.01073706828414455</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.01023844047307508</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.01035298173251562</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.01059906501894525</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.01004629746985945</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.01239022619621809</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.01326967512895297</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.01059916531943163</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.01083496567828953</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.0121973758371379</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.01061034629318821</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.01146692663442202</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.01069286089438737</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Task 3.15</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01190270507682521</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.001301281802683198</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01165430902177328</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01192522188032207</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01121914879228945</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01060640090725699</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0118153196672465</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01127789538626643</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01447549206019435</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.01133847043283728</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.01120167369222027</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.01599030228561351</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.01222861715000774</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.01152170929429689</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.01090649126311248</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.01109901336200115</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.01508225797161823</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0106236666546801</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.01147452017758862</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.01099840052449596</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.01177343623657737</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.01153520669387924</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.01170117102279206</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.0142639577117916</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.01271290392065521</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.01129672933982126</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.01107313076832583</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.01164910014435483</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.0107741949612813</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.011984167926194</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.0117257293178698</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.01115251373739247</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Task 3.16</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01205119691651508</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0008787750437132856</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01179965194637414</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0118533915050832</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01327625780824359</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01218936361233371</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.01347259654861834</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.01119486922175937</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.01119280046947374</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.01168815179880125</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.01216949524160048</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.01193031808173552</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.01152044696779072</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.01293790743817502</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.01228847124715622</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.01143856660775681</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.01097028583437466</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.01184284480460828</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.01193385965079398</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.01286359825904616</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.01279129849843627</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.01235754417532557</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.01182452112249988</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.01519506504759361</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.0128464774370991</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.01111573647555432</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.01156506312447655</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.01171627268714524</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.01115481662174808</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.01160311262806526</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.01173904467399141</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.01106407795979203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/results.xlsx
+++ b/notebooks/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,100 +1637,100 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01262806359056558</v>
+        <v>0.01064461902086103</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007026270012153038</v>
+        <v>0.0005977783134932873</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01220863671141525</v>
+        <v>0.01023751881235292</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01239175305993261</v>
+        <v>0.01069353597888126</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01299401382723213</v>
+        <v>0.01090662505092131</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01282771707641304</v>
+        <v>0.01142638351517632</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01218955822630577</v>
+        <v>0.01042385456887589</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01304217471582856</v>
+        <v>0.01089746446422633</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01413221606090462</v>
+        <v>0.01197185602434062</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01240941044343915</v>
+        <v>0.01040914435577777</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01248858965244989</v>
+        <v>0.01069215975615522</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01170154744888171</v>
+        <v>0.01000714674972099</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01233462510299587</v>
+        <v>0.01015238800555611</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01298815282924202</v>
+        <v>0.01087924733372676</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01173494076117158</v>
+        <v>0.0097993223693</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0121332657970808</v>
+        <v>0.01007686997159644</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01214867564971594</v>
+        <v>0.01018823998682908</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01221581784747909</v>
+        <v>0.0102420787240653</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01237582265653565</v>
+        <v>0.01042064613234451</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01248049465646529</v>
+        <v>0.01061791013628076</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01220773034250626</v>
+        <v>0.01031125561989872</v>
       </c>
       <c r="W12" t="n">
-        <v>0.01199609248268396</v>
+        <v>0.0101727840990696</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01297301721610003</v>
+        <v>0.01058454807166361</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01264603589933758</v>
+        <v>0.01065592379424043</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.01389140310689247</v>
+        <v>0.01169337690567628</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01480268077767647</v>
+        <v>0.01246221382894587</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01211953118632274</v>
+        <v>0.01024881006312314</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01238356261688167</v>
+        <v>0.01042735895887869</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01303837282164264</v>
+        <v>0.01086263077957389</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.01195923005139547</v>
+        <v>0.009964249901595657</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.01235836851592041</v>
+        <v>0.01070290221748107</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.01366847017611865</v>
+        <v>0.01121012444955634</v>
       </c>
     </row>
     <row r="13">
@@ -2864,6 +2864,109 @@
       </c>
       <c r="AG23" t="n">
         <v>0.01106407795979203</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Task 4</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.01255425673669903</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0006583993878467496</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01228864237644526</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01239493831392954</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.01320084748559273</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0135264380862166</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.01178920175774237</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.01205237801417426</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0138306402513558</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.01230702130655395</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0119169713591391</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0126006423659272</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.01220005656477842</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0123339049428252</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.01224519318585674</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.01175575738206552</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0127559384810645</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.0132778541071266</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.01203126105397126</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.0121738441414118</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.01186061735295003</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.0135572255948135</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.01261200975557703</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.01213630682630265</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.01201770924054356</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.01269238361796149</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.0121447554838243</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.01258021438784777</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.01309439147371852</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.01190520251928036</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.01449880473366081</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.01284654993831405</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/results.xlsx
+++ b/notebooks/results.xlsx
@@ -2873,100 +2873,100 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01255425673669903</v>
+        <v>0.01060454853587861</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0006583993878467496</v>
+        <v>0.0006385053530277662</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01228864237644526</v>
+        <v>0.01040087687654415</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01239493831392954</v>
+        <v>0.0103285325465647</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01320084748559273</v>
+        <v>0.01099262673582687</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0135264380862166</v>
+        <v>0.01185698394095838</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01178920175774237</v>
+        <v>0.01001814562060803</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01205237801417426</v>
+        <v>0.01017261685235616</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0138306402513558</v>
+        <v>0.01224959302631568</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01230702130655395</v>
+        <v>0.01063443511389747</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0119169713591391</v>
+        <v>0.01012059542609338</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0126006423659272</v>
+        <v>0.01057849544773513</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01220005656477842</v>
+        <v>0.01016826760009977</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0123339049428252</v>
+        <v>0.01021874430518442</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01224519318585674</v>
+        <v>0.01023878605650884</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01175575738206552</v>
+        <v>0.009803497028981506</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0127559384810645</v>
+        <v>0.01066741067168047</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0132778541071266</v>
+        <v>0.01178892063053016</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01203126105397126</v>
+        <v>0.01009580676860967</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0121738441414118</v>
+        <v>0.01020478227326674</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01186061735295003</v>
+        <v>0.01010821407825506</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0135572255948135</v>
+        <v>0.01111926320627797</v>
       </c>
       <c r="X24" t="n">
-        <v>0.01261200975557703</v>
+        <v>0.01042564333094736</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01213630682630265</v>
+        <v>0.01031012959804047</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01201770924054356</v>
+        <v>0.01000086249736364</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01269238361796149</v>
+        <v>0.01042244236018066</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0121447554838243</v>
+        <v>0.01016109894189465</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01258021438784777</v>
+        <v>0.01123381065606048</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.01309439147371852</v>
+        <v>0.01094556895989479</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01190520251928036</v>
+        <v>0.01018475037564839</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.01449880473366081</v>
+        <v>0.01204233856456019</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.01284654993831405</v>
+        <v>0.01064321658547329</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/results.xlsx
+++ b/notebooks/results.xlsx
@@ -2873,100 +2873,100 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01060454853587861</v>
+        <v>0.01056809025693879</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0006385053530277662</v>
+        <v>0.0004251419247380778</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01040087687654415</v>
+        <v>0.01037159892807455</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0103285325465647</v>
+        <v>0.01053392145062811</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01099262673582687</v>
+        <v>0.01074960940189098</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01185698394095838</v>
+        <v>0.01021502555306767</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01001814562060803</v>
+        <v>0.01096049719876997</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01017261685235616</v>
+        <v>0.01024017969239922</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01224959302631568</v>
+        <v>0.01019598347694009</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01063443511389747</v>
+        <v>0.01033018247194936</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01012059542609338</v>
+        <v>0.0104702606927747</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01057849544773513</v>
+        <v>0.01066761632963951</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01016826760009977</v>
+        <v>0.01154692538081481</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01021874430518442</v>
+        <v>0.01082319999272506</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01023878605650884</v>
+        <v>0.01044953265560866</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.009803497028981506</v>
+        <v>0.01053661446667713</v>
       </c>
       <c r="R24" t="n">
-        <v>0.01066741067168047</v>
+        <v>0.0100905247265575</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01178892063053016</v>
+        <v>0.0106131793606767</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01009580676860967</v>
+        <v>0.01044342437098189</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01020478227326674</v>
+        <v>0.01063048843413842</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01010821407825506</v>
+        <v>0.0113227011416644</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01111926320627797</v>
+        <v>0.009883011275346854</v>
       </c>
       <c r="X24" t="n">
-        <v>0.01042564333094736</v>
+        <v>0.01141639539737497</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01031012959804047</v>
+        <v>0.01015933367157239</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01000086249736364</v>
+        <v>0.01037784229561048</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01042244236018066</v>
+        <v>0.01007344352089658</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01016109894189465</v>
+        <v>0.01074051943846135</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01123381065606048</v>
+        <v>0.01141365896665312</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.01094556895989479</v>
+        <v>0.01034929149376649</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01018475037564839</v>
+        <v>0.01078732068471963</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.01204233856456019</v>
+        <v>0.01071003869035931</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.01064321658547329</v>
+        <v>0.009940386547423734</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/results.xlsx
+++ b/notebooks/results.xlsx
@@ -2869,104 +2869,104 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Task 4</t>
+          <t>Task 5.2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01056809025693879</v>
+        <v>0.01063110686486934</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004251419247380778</v>
+        <v>0.0006593205747873491</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01037159892807455</v>
+        <v>0.01043710554316247</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01053392145062811</v>
+        <v>0.01037725881995812</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01074960940189098</v>
+        <v>0.01071944822600781</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01021502555306767</v>
+        <v>0.01127196178817419</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01096049719876997</v>
+        <v>0.01027269198404056</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01024017969239922</v>
+        <v>0.01084408167559385</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01019598347694009</v>
+        <v>0.01086165834018276</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01033018247194936</v>
+        <v>0.009937403691591649</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0104702606927747</v>
+        <v>0.009945927533684838</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01066761632963951</v>
+        <v>0.0100262569883421</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01154692538081481</v>
+        <v>0.01157106240780273</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01082319999272506</v>
+        <v>0.01180676729131343</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01044953265560866</v>
+        <v>0.009879806617262255</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01053661446667713</v>
+        <v>0.01028222543972634</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0100905247265575</v>
+        <v>0.01016269812056746</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0106131793606767</v>
+        <v>0.01029817565819954</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01044342437098189</v>
+        <v>0.01056886045503612</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01063048843413842</v>
+        <v>0.0105073514402727</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0113227011416644</v>
+        <v>0.01165383831277412</v>
       </c>
       <c r="W24" t="n">
-        <v>0.009883011275346854</v>
+        <v>0.01002025273752969</v>
       </c>
       <c r="X24" t="n">
-        <v>0.01141639539737497</v>
+        <v>0.01108181075739776</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01015933367157239</v>
+        <v>0.009750670392637361</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01037784229561048</v>
+        <v>0.01013701511806955</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01007344352089658</v>
+        <v>0.009871627184213881</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01074051943846135</v>
+        <v>0.0116820261470679</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01141365896665312</v>
+        <v>0.01079419456860513</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.01034929149376649</v>
+        <v>0.01030819466498653</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01078732068471963</v>
+        <v>0.01233586970705188</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.01071003869035931</v>
+        <v>0.01113817766392169</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.009940386547423734</v>
+        <v>0.01038878667090573</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/results.xlsx
+++ b/notebooks/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2969,6 +2969,212 @@
         <v>0.01038878667090573</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Task 4</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01058164003000761</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0004464844186466111</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.01036876590180693</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01050597269597479</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.01113080339814365</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01023180820744583</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01095210216315215</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.01016557208459245</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.01051757864633343</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.01046087715795568</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.01053582667184033</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.01051671393663554</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.01136206872889802</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.01062075431886233</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.01055054551506538</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.0107304731308811</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.01006388281763861</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.01066818857162889</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.01051833300690522</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.01037883332088659</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.01168062888377933</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.009887543830211811</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.0115794623782776</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.01005989033364063</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.01005619016098587</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.01052840404403872</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.01071259178288651</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.01123495899869301</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.01034432160638353</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.01069872512353806</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.01048031933601897</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.009907064147127363</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Task 5.1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01061860054157</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.000642580286161867</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01011433602771769</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01027878664917922</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0112247207328965</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01097195567738501</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.01046086097790481</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0107349103187676</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.01112181879739266</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.00991036422911821</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.009791106984577552</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.009936914360008499</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.01162469668166206</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.01132966042922809</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.009797751633263232</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.0103401854975243</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.01036179053011395</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.01030852162287169</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.01057698299479672</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.01164732622492706</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.01163268293930642</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.009841470971278975</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.0110799030614077</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.009851507301561171</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.01065650096284967</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.0100474359387504</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.0112716359893262</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.01069247563562356</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.009865071640241465</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.01204921110082998</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.01088192560802101</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.01015550472856856</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/notebooks/results.xlsx
+++ b/notebooks/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2869,7 +2869,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Task 4</t>
+          <t>Task 4.1</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2972,310 +2972,413 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Task 5.1</t>
+          <t>Task 4.2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01061860054157</v>
+        <v>0.01057013667475462</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000642580286161867</v>
+        <v>0.0005005659407863555</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01011433602771769</v>
+        <v>0.01030731884798878</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01027878664917922</v>
+        <v>0.01046173435880525</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0112247207328965</v>
+        <v>0.01103629893751503</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01097195567738501</v>
+        <v>0.01008439654807944</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01046086097790481</v>
+        <v>0.01093962419329085</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0107349103187676</v>
+        <v>0.01015618973961673</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01112181879739266</v>
+        <v>0.0100724451293896</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00991036422911821</v>
+        <v>0.01061491848467104</v>
       </c>
       <c r="L25" t="n">
-        <v>0.009791106984577552</v>
+        <v>0.01033790987375893</v>
       </c>
       <c r="M25" t="n">
-        <v>0.009936914360008499</v>
+        <v>0.01048788691785228</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01162469668166206</v>
+        <v>0.01143696616118029</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01132966042922809</v>
+        <v>0.01092643645155179</v>
       </c>
       <c r="P25" t="n">
-        <v>0.009797751633263232</v>
+        <v>0.01025622278850475</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0103401854975243</v>
+        <v>0.01073533645900154</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01036179053011395</v>
+        <v>0.01007063401650483</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01030852162287169</v>
+        <v>0.01082403369716303</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01057698299479672</v>
+        <v>0.01050390026902077</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01164732622492706</v>
+        <v>0.01077713568897991</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01163268293930642</v>
+        <v>0.01156918574693464</v>
       </c>
       <c r="W25" t="n">
-        <v>0.009841470971278975</v>
+        <v>0.009712423806234684</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0110799030614077</v>
+        <v>0.01169137996563375</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.009851507301561171</v>
+        <v>0.01008737208311145</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.01065650096284967</v>
+        <v>0.01038533426990044</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0100474359387504</v>
+        <v>0.01002207990846811</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.0112716359893262</v>
+        <v>0.010892256726454</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.01069247563562356</v>
+        <v>0.01135329705292846</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.009865071640241465</v>
+        <v>0.01023900159137059</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.01204921110082998</v>
+        <v>0.01082215320353932</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.01088192560802101</v>
+        <v>0.01046445840502846</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.01015550472856856</v>
+        <v>0.009835768920159778</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Task 5.2</t>
+          <t>Task 5.1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01063110686486934</v>
+        <v>0.01094645632520933</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006593205747873491</v>
+        <v>0.0009015060449485058</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01043710554316247</v>
+        <v>0.0105947442228127</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01037725881995812</v>
+        <v>0.01064116525558864</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01071944822600781</v>
+        <v>0.01290009441114279</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01127196178817419</v>
+        <v>0.01041402377965366</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01027269198404056</v>
+        <v>0.01052461469724162</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01084408167559385</v>
+        <v>0.01102616963801676</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01086165834018276</v>
+        <v>0.01043513092124959</v>
       </c>
       <c r="K26" t="n">
-        <v>0.009937403691591649</v>
+        <v>0.01007429458308798</v>
       </c>
       <c r="L26" t="n">
-        <v>0.009945927533684838</v>
+        <v>0.01052191798454783</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0100262569883421</v>
+        <v>0.01038607140137711</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01157106240780273</v>
+        <v>0.01169278225280685</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01180676729131343</v>
+        <v>0.01121431387448157</v>
       </c>
       <c r="P26" t="n">
-        <v>0.009879806617262255</v>
+        <v>0.01013278970275092</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01028222543972634</v>
+        <v>0.01054587546034712</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01016269812056746</v>
+        <v>0.009789165836331638</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01029817565819954</v>
+        <v>0.01057606753487713</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01056886045503612</v>
+        <v>0.01060314049240994</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0105073514402727</v>
+        <v>0.01088286083218916</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01165383831277412</v>
+        <v>0.01169587789401826</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01002025273752969</v>
+        <v>0.01036945468160288</v>
       </c>
       <c r="X26" t="n">
-        <v>0.01108181075739776</v>
+        <v>0.01229077041653039</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.009750670392637361</v>
+        <v>0.01038786501902274</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01013701511806955</v>
+        <v>0.01114223586665325</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.009871627184213881</v>
+        <v>0.01080742570073047</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0116820261470679</v>
+        <v>0.0131134659350269</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01079419456860513</v>
+        <v>0.01209163466560852</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.01030819466498653</v>
+        <v>0.009911310621027784</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.01233586970705188</v>
+        <v>0.01292687250175204</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.01113817766392169</v>
+        <v>0.01086647707732529</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.01038878667090573</v>
+        <v>0.009835076496068487</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Task 5.2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01105812470007133</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.000801530499824401</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01040134141374233</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.01054155830563586</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.01199250720794866</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01017678899381777</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.01132816402016193</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.01194004847267183</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01060357283730544</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.01131292985119929</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.01089105513727888</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.01026045188892836</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.01141995560590436</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.01168005161730688</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.010527887523696</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.01036495060336992</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.009999550651592373</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.01054947398991609</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.01089902656314451</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.01152356853482261</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.01190753122639767</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.01074064948256935</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.012598873125015</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.01076845084808825</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.01174774694955943</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.01032694570052849</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.01168678052568842</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.01152006667137058</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.009958183749771426</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.01325483482330768</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.01089260112675032</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.009928193554650223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Task 5.3</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0.01060339761578878</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.000663766388823935</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.01016423419856203</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.01031958376122531</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.01159343305243781</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.01120468138345878</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.01062533396269232</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.01051067999179003</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.01150509262491319</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.009995110985058609</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.009824227513908964</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.009870882660994453</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.01144004940400946</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.01131116957844972</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.009846890525716622</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.01024172202379465</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.01026878740394908</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.01022124778320007</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.0105273486343247</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.01050133607886856</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.01159423947716496</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0.009962261757706294</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.01126374760757759</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0.009803952808169005</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0.01005872218421709</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.01016278482474796</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0.01083290441772231</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0.01093416867400333</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0.009970348338668332</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0.01223222571418951</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0.01133111101488586</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0.00998365008725677</v>
+      <c r="B28" t="n">
+        <v>0.01092233396509257</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0008218368162363563</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01069095317834767</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.01046998944436819</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01298152631821786</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01037306942016312</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0103084622219599</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01100685503390813</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01102118488917939</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.01112867270852016</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.01061221438384759</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.01046101830713468</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.01143602718992988</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.01110305415961764</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.01033951649990365</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.01050756696355912</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.009873911427863166</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.01042816544272811</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.01096483406365935</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.01067821760227414</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.01258196408800248</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.01070875778470997</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.01247479091767482</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.01055939637759182</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.01082003997454337</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.009938394700583848</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.01265017724044342</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.01082929094785161</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.009938750174112372</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.01205727783434322</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.01075549715273997</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.009970442504998421</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/results.xlsx
+++ b/notebooks/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,616 +607,276 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01230375648492922</v>
+        <v>0.01062507273230198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009770680919616345</v>
+        <v>0.0007045330027411662</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01188918992758971</v>
+        <v>0.0102898400726335</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01160117627930715</v>
+        <v>0.01098353921070346</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01188130925924271</v>
+        <v>0.01094145513204158</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01136850104233102</v>
+        <v>0.01029635093428419</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01277238603230953</v>
+        <v>0.01047027427755469</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01203633603470792</v>
+        <v>0.01015856319095458</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01233120617901053</v>
+        <v>0.009845473319599096</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01169934629537907</v>
+        <v>0.01113475253605794</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01243218097253503</v>
+        <v>0.01037064261898378</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01320735891693799</v>
+        <v>0.01031523945208882</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01236197286883527</v>
+        <v>0.01225663043630021</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01301114219959802</v>
+        <v>0.01045471552081444</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01196308495588526</v>
+        <v>0.01071901591894706</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01589865518780909</v>
+        <v>0.01093213963002173</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01277910818650125</v>
+        <v>0.009562212657896545</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01204033646676662</v>
+        <v>0.01225256235177077</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01172901259137337</v>
+        <v>0.009993468389378207</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01164692294404314</v>
+        <v>0.01059336795872479</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01163653365243031</v>
+        <v>0.009966355834218883</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01222507333239182</v>
+        <v>0.01025469784590778</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01143931508683669</v>
+        <v>0.01175540124617713</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01224486764269711</v>
+        <v>0.01035703007835909</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01207522286973224</v>
+        <v>0.01046738439358349</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01139491384626477</v>
+        <v>0.01037173650536996</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01142619078201434</v>
+        <v>0.009917947784637426</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0127286975776987</v>
+        <v>0.01009796833159454</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0114308347280423</v>
+        <v>0.01141970786538412</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01493791664781915</v>
+        <v>0.0121731669259822</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01261834176748057</v>
+        <v>0.01030800759484185</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01230556027430588</v>
+        <v>0.01009253395424771</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Task 1.2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0125143026378602</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0009286409301208429</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01230884206293772</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01227359580888313</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.01282841210114385</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.01382131942155345</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.01161947371610968</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0124394835621824</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.01558152886119444</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.01339671049790303</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.01427382450786826</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.01131035246112799</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.01181195410607417</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.01209924933722949</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.01163522899910327</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.01190572483969816</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.01181471784505838</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.01157678627573285</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.01243719547695629</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.01180702390714831</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.01243010041820711</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.01217145474197026</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.01318069995227938</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.01297040470116222</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.01204510058188517</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.01417274949606938</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.01225794802820808</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.0119215000735556</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.01281879058130859</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.01246698795338804</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.01208174862882848</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.01197017019103905</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Task 1.3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.01282241493803336</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.001030553274411273</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01310564099841199</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01315397124851132</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01214103575071347</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0122183174704885</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.01315390513886671</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01248291902076572</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.01358000319056932</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.01276802725202968</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.01438199697980598</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.01209304861382384</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.01313564029661792</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.01538406892917463</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.01228828552078645</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.01218539129628408</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.01234794039432264</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.01342531611022831</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.011863308620146</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.01201367686056529</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.01222559946788551</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.01222023907087584</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.01207594123538753</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.01282743747450211</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.0117436627917644</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.01242882107151683</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.01650193026497361</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.01267102969070503</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.01261922115045951</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.01225462482080183</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.0134002708116908</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.01198117659832594</v>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Task 2.1</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.08431783954930744</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.01106053099007447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08417382608662165</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.07435658049947146</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.08354543983393478</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.09364954942610355</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1044144230282171</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.08199974381649106</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.06299096764441926</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0812330484439924</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.09138828232151276</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.08266741664561127</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.1187278930644325</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.08964097875850044</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.07447109656994762</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.07971537158318193</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.07633897949563578</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.09615977214369563</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.07808267231437423</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.07857233599850347</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.07887765892999765</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.09420933562342047</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.09135159304554834</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.06931722272783719</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.0799490214655089</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.0801560068186782</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.08241808098004511</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.08830633352639981</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.09652774550960844</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.07556986563133568</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.09121903983736693</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.06950490470883035</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Task 2.2</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.08416166563331823</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.01455372048366031</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.07402657447712913</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.07919517366911677</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.07452550926007606</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.087974717264898</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1128490183962183</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.08232778367785416</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.06108034222404875</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.08136892849807383</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.102635254601126</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.06688918284242608</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.1150631064422838</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.09586187947064116</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.06420137579855427</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.08407328604164743</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.07126663072928303</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.09727671788896416</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.09751585778943783</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.07273067330118455</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.08330241002870241</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.07742087514371437</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.08042286743600804</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.08276818371493709</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.08196497718394398</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.09422179412385415</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.07472929629015138</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.08005813744135941</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.1091399618922218</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.0713862376733599</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.1056695130170071</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.06290370268132385</v>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Task 2.3</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.09367874078316375</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06369766856562105</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06213846801354292</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.08734831264268018</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.07971808756044985</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1062413120336852</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.4027369838863891</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.08290334170648411</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.07060533581899853</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.07241239553877273</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1203083665734629</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.0577916703930412</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.1728058970760938</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.1031277717412388</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.05000174645514413</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.0767187916829412</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.06291654048361624</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.09528053744647427</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.1068450997364893</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.06401400559372331</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.07787640561528514</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.08703884723810673</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.06362324476075272</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.05976900928971096</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.08879469598882468</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.07834078152035877</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.0726764484006903</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.0758613878719854</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.1099942561685967</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.02747741806030869</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.1370504125217877</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.05794465167527679</v>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3379,6 +3039,521 @@
       </c>
       <c r="AG28" t="n">
         <v>0.009970442504998421</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Task 1.3</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01133412505118089</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.001629439591716211</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.01008236874464717</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01015054480949323</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.01242980308974711</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01001343835735544</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.01109826879519455</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.009962000392182821</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01008261275704501</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.01710466961038112</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.01081786713853968</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.01005137023415358</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01075667150834188</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.01198688694245638</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.01104489219572651</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.01295217779980997</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.01393755988794837</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.01133481113912493</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.01246479788435205</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.01027764575634618</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.01043956190739405</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.01124612388099207</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.01010728006499345</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.01003615461302219</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.01206735517241972</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.01030628080060567</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.01059672374474335</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.01099113283497691</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.01089857935608854</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.01179772325171936</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.01504770553210249</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.009940743333522867</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Task 1.2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01068183529727907</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0007940934953086142</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01056498446345374</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01181155016871534</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.009857246385862909</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01067668280980277</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.009989874835468433</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01144453863804765</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.01282942605515234</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01048705072581004</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.01032350561345001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.01014017269699664</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01017674685217083</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.01007932263890656</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.01118121575390118</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.01003347763476075</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.01015627158169143</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.01198023980371075</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.01018485083276736</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.01037064021303514</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.01024163152260439</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.009709745715054315</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.01056039611795638</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.01084240311880699</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.009947648177661252</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.01251460195574226</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.0102423388605451</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.01142307977571394</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.009918038297393848</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.01046611831750965</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.01155809760078364</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.01074316175489649</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Task 2.1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0734506016520706</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.007550390076742907</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.07413098830977025</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.07144995159974288</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.06892609777094717</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.08109995963961426</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.08501252615801408</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.06915886689945375</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.06157727653687834</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0729883353576373</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0784699199215307</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.07086059010605716</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.09580250024555177</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.07223566287412861</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.06541438804837849</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.07007518859760405</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.06825903304271644</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.08240499080297974</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.07647334995781244</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.06318505142794234</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.07323637953342579</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.07601261808938889</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.07308666632096375</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.07050085375498251</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.07489582287723708</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.07028200205716731</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.07352467944355309</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.0711541039332852</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.08234910568444075</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.06495517369332859</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.08561320612122016</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.06038276075636474</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Task 2.2</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0722765928246645</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01125882586595747</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.06360692117525431</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.07359575536690895</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.05798636090937087</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.07158583412796685</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.09057149431133647</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.06809108165620045</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.06093541670159602</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.06991307046087633</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.08535016555973673</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.06626519080391806</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.09874913661086392</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.07907868646553873</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.05692964763201473</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.07271497354003735</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.0663202545954986</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.08028253011537341</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.07931919036017529</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.06667537162675617</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.06524679220788859</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.07951137420334518</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.07222909997076236</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.06484373666186215</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.06388294379317336</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.0696105174060116</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.07529519679975508</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.06604077212986049</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.09369127627716303</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.06549670441909494</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.09318313115010352</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.05129515770149137</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Task 2.3</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.07356803592119811</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01952532692223435</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.05246852190564481</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.06805867713328342</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.08355948254000931</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.07970731890060183</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1306624398152379</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.06639510256154151</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.06987889821017021</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.05798647736279237</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.09220230636689268</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0563716786704195</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1240235330324889</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.08713541294208169</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.0487652796892703</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.06197489765723944</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0581658872193207</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.08283894825004018</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.0788599511894076</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.0539716097843544</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.06980183788436145</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.08347600545428466</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.06137475282708929</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.05604528959952895</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.07283565782254141</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.07421067108227215</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.07012254978560992</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.07195854515795386</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.07923521280933912</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.06305194498788115</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.1047726496607922</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.04712953733349216</v>
       </c>
     </row>
   </sheetData>
